--- a/resource/triangleInput.xlsx
+++ b/resource/triangleInput.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pelin Şenkula\Documents\GitHub\localrepo\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pelin Şenkula\Documents\GitHub\SoftwareTesting\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12840" windowHeight="2610" tabRatio="850" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12840" windowHeight="2610" tabRatio="850" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="72">
   <si>
     <t>R1</t>
   </si>
@@ -76,12 +76,6 @@
     <t>type_of_triangle</t>
   </si>
   <si>
-    <t>OV2</t>
-  </si>
-  <si>
-    <t>error_message</t>
-  </si>
-  <si>
     <t>Expected Output (Output Variables)</t>
   </si>
   <si>
@@ -211,7 +205,49 @@
     <t>Boundary Values</t>
   </si>
   <si>
-    <t>ECs and Values</t>
+    <t>Valid ECs and Values</t>
+  </si>
+  <si>
+    <t>Invalid ECs and Values</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>Invalid Classes</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>{a&lt;1, b,c : 1..200}</t>
+  </si>
+  <si>
+    <t>{a&gt;200, b,c : 1..200}</t>
+  </si>
+  <si>
+    <t>{b&lt;1, a,c:1..200}</t>
+  </si>
+  <si>
+    <t>{b&gt;200 , a,c:1..200}</t>
+  </si>
+  <si>
+    <t>{c&lt;1, a,b:1..200}</t>
+  </si>
+  <si>
+    <t>{c&gt;200, a,b:1..200}</t>
   </si>
 </sst>
 </file>
@@ -292,7 +328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -363,25 +399,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
@@ -400,14 +423,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bağlı Hücre" xfId="1" builtinId="24"/>
@@ -753,23 +777,23 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -780,10 +804,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,89 +817,118 @@
     <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="11" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.28515625" customWidth="1"/>
+    <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="19"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="17"/>
+    </row>
+    <row r="2" spans="1:24" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="I2" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="X2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -883,7 +936,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="8">
         <v>5</v>
@@ -909,29 +962,47 @@
       <c r="K3" s="8">
         <v>2</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="8">
         <v>0</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="8">
+        <v>201</v>
+      </c>
+      <c r="N3" s="8">
+        <v>2</v>
+      </c>
+      <c r="O3" s="8">
+        <v>2</v>
+      </c>
+      <c r="P3" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>2</v>
+      </c>
+      <c r="R3" s="11">
+        <v>0</v>
+      </c>
+      <c r="S3" s="11">
         <v>1</v>
       </c>
-      <c r="N3" s="11">
-        <v>2</v>
-      </c>
-      <c r="O3" s="11">
+      <c r="T3" s="11">
+        <v>2</v>
+      </c>
+      <c r="U3" s="11">
         <v>100</v>
       </c>
-      <c r="P3" s="11">
+      <c r="V3" s="11">
         <v>199</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="W3" s="11">
         <v>200</v>
       </c>
-      <c r="R3" s="11">
+      <c r="X3" s="11">
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -939,7 +1010,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="8">
         <v>5</v>
@@ -965,29 +1036,47 @@
       <c r="K4" s="8">
         <v>1</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="8">
+        <v>2</v>
+      </c>
+      <c r="M4" s="8">
+        <v>2</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0</v>
+      </c>
+      <c r="O4" s="8">
+        <v>201</v>
+      </c>
+      <c r="P4" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>2</v>
+      </c>
+      <c r="R4" s="11">
         <v>5</v>
       </c>
-      <c r="M4" s="11">
+      <c r="S4" s="11">
         <v>6</v>
       </c>
-      <c r="N4" s="11">
+      <c r="T4" s="11">
         <v>7</v>
       </c>
-      <c r="O4" s="11">
+      <c r="U4" s="11">
         <v>250</v>
       </c>
-      <c r="P4" s="11">
+      <c r="V4" s="11">
         <v>498</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="W4" s="11">
         <v>499</v>
       </c>
-      <c r="R4" s="11">
+      <c r="X4" s="11">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -995,7 +1084,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="8">
         <v>5</v>
@@ -1021,96 +1110,167 @@
       <c r="K5" s="8">
         <v>4</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="8">
+        <v>2</v>
+      </c>
+      <c r="M5" s="8">
+        <v>2</v>
+      </c>
+      <c r="N5" s="8">
+        <v>2</v>
+      </c>
+      <c r="O5" s="8">
+        <v>2</v>
+      </c>
+      <c r="P5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>201</v>
+      </c>
+      <c r="R5" s="11">
         <v>10</v>
       </c>
-      <c r="M5" s="11">
+      <c r="S5" s="11">
         <v>11</v>
       </c>
-      <c r="N5" s="11">
+      <c r="T5" s="11">
         <v>12</v>
       </c>
-      <c r="O5" s="11">
+      <c r="U5" s="11">
         <v>500</v>
       </c>
-      <c r="P5" s="11">
+      <c r="V5" s="11">
         <v>998</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="W5" s="11">
         <v>999</v>
       </c>
-      <c r="R5" s="11">
+      <c r="X5" s="11">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
         <v>51</v>
       </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
         <v>54</v>
       </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1121,10 +1281,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,14 +1306,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1161,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,15 +1326,13 @@
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1190,18 +1340,16 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -1215,19 +1363,13 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -1241,13 +1383,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
         <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1257,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:I11"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,15 +1406,13 @@
     <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1286,18 +1420,16 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -1311,19 +1443,13 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -1337,13 +1463,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
         <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1353,10 +1473,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,15 +1486,13 @@
     <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1382,18 +1500,16 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -1407,19 +1523,13 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -1433,13 +1543,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
         <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1449,10 +1553,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:I9"/>
+  <dimension ref="A7:G9"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G7" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,15 +1566,13 @@
     <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -1478,18 +1580,16 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -1503,19 +1603,13 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -1529,13 +1623,7 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
         <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1545,9 +1633,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1556,15 +1646,13 @@
     <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1572,18 +1660,16 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -1597,19 +1683,13 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -1623,13 +1703,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
         <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1639,9 +1713,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1650,15 +1726,13 @@
     <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1666,18 +1740,16 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -1691,19 +1763,13 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -1717,13 +1783,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
         <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/resource/triangleInput.xlsx
+++ b/resource/triangleInput.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12840" windowHeight="2610" tabRatio="850" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12840" windowHeight="2610" tabRatio="850" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5:X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,25 +1055,25 @@
         <v>2</v>
       </c>
       <c r="R4" s="11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S4" s="11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T4" s="11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U4" s="11">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="V4" s="11">
-        <v>498</v>
+        <v>199</v>
       </c>
       <c r="W4" s="11">
-        <v>499</v>
+        <v>200</v>
       </c>
       <c r="X4" s="11">
-        <v>500</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -1129,25 +1129,25 @@
         <v>201</v>
       </c>
       <c r="R5" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S5" s="11">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="T5" s="11">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="U5" s="11">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="V5" s="11">
-        <v>998</v>
+        <v>199</v>
       </c>
       <c r="W5" s="11">
-        <v>999</v>
+        <v>200</v>
       </c>
       <c r="X5" s="11">
-        <v>1000</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1715,7 +1715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>

--- a/resource/triangleInput.xlsx
+++ b/resource/triangleInput.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12840" windowHeight="2610" tabRatio="850" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12840" windowHeight="2610" tabRatio="850" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5:X5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,25 +1055,25 @@
         <v>2</v>
       </c>
       <c r="R4" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S4" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T4" s="11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U4" s="11">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="V4" s="11">
-        <v>199</v>
+        <v>498</v>
       </c>
       <c r="W4" s="11">
-        <v>200</v>
+        <v>499</v>
       </c>
       <c r="X4" s="11">
-        <v>201</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -1129,25 +1129,25 @@
         <v>201</v>
       </c>
       <c r="R5" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S5" s="11">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="T5" s="11">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="U5" s="11">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="V5" s="11">
-        <v>199</v>
+        <v>998</v>
       </c>
       <c r="W5" s="11">
-        <v>200</v>
+        <v>999</v>
       </c>
       <c r="X5" s="11">
-        <v>201</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1715,7 +1715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>

--- a/resource/triangleInput.xlsx
+++ b/resource/triangleInput.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pelin Şenkula\Documents\GitHub\SoftwareTesting\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emre\Documents\GitHub\SoftwareTesting\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12840" windowHeight="2610" tabRatio="850" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12840" windowHeight="2610" tabRatio="850" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -232,22 +232,22 @@
     <t>D14</t>
   </si>
   <si>
-    <t>{a&lt;1, b,c : 1..200}</t>
-  </si>
-  <si>
-    <t>{a&gt;200, b,c : 1..200}</t>
-  </si>
-  <si>
-    <t>{b&lt;1, a,c:1..200}</t>
-  </si>
-  <si>
-    <t>{b&gt;200 , a,c:1..200}</t>
-  </si>
-  <si>
-    <t>{c&lt;1, a,b:1..200}</t>
-  </si>
-  <si>
-    <t>{c&gt;200, a,b:1..200}</t>
+    <t>{a&lt;1}</t>
+  </si>
+  <si>
+    <t>{a&gt;200}</t>
+  </si>
+  <si>
+    <t>{b&lt;1}</t>
+  </si>
+  <si>
+    <t>{b&gt;200}</t>
+  </si>
+  <si>
+    <t>{c&lt;1}</t>
+  </si>
+  <si>
+    <t>{c&gt;200}</t>
   </si>
 </sst>
 </file>
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,18 +968,10 @@
       <c r="M3" s="8">
         <v>201</v>
       </c>
-      <c r="N3" s="8">
-        <v>2</v>
-      </c>
-      <c r="O3" s="8">
-        <v>2</v>
-      </c>
-      <c r="P3" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>2</v>
-      </c>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
       <c r="R3" s="11">
         <v>0</v>
       </c>
@@ -1036,24 +1028,16 @@
       <c r="K4" s="8">
         <v>1</v>
       </c>
-      <c r="L4" s="8">
-        <v>2</v>
-      </c>
-      <c r="M4" s="8">
-        <v>2</v>
-      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
       <c r="N4" s="8">
         <v>0</v>
       </c>
       <c r="O4" s="8">
         <v>201</v>
       </c>
-      <c r="P4" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>2</v>
-      </c>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
       <c r="R4" s="11">
         <v>5</v>
       </c>
@@ -1110,18 +1094,10 @@
       <c r="K5" s="8">
         <v>4</v>
       </c>
-      <c r="L5" s="8">
-        <v>2</v>
-      </c>
-      <c r="M5" s="8">
-        <v>2</v>
-      </c>
-      <c r="N5" s="8">
-        <v>2</v>
-      </c>
-      <c r="O5" s="8">
-        <v>2</v>
-      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
       <c r="P5" s="8">
         <v>0</v>
       </c>
@@ -1715,7 +1691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>

--- a/resource/triangleInput.xlsx
+++ b/resource/triangleInput.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emre\Documents\GitHub\SoftwareTesting\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pelin Şenkula\Documents\GitHub\SoftwareTesting\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12840" windowHeight="2610" tabRatio="850" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12840" windowHeight="2610" tabRatio="850" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="Robustness Test Cases" sheetId="5" r:id="rId5"/>
     <sheet name="Worst Case Test Cases" sheetId="6" r:id="rId6"/>
     <sheet name="Traditional Equivalence" sheetId="7" r:id="rId7"/>
-    <sheet name="Weak Equivalence Test Cases " sheetId="8" r:id="rId8"/>
-    <sheet name="Strong Equivalence Test Cases" sheetId="9" r:id="rId9"/>
+    <sheet name="Weak Eqivalance Test Cases" sheetId="8" r:id="rId8"/>
+    <sheet name="Strong Equivalance Test Cases" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5:X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,25 +1039,25 @@
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S4" s="11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T4" s="11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U4" s="11">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="V4" s="11">
-        <v>498</v>
+        <v>199</v>
       </c>
       <c r="W4" s="11">
-        <v>499</v>
+        <v>200</v>
       </c>
       <c r="X4" s="11">
-        <v>500</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -1105,25 +1105,25 @@
         <v>201</v>
       </c>
       <c r="R5" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S5" s="11">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="T5" s="11">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="U5" s="11">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="V5" s="11">
-        <v>998</v>
+        <v>199</v>
       </c>
       <c r="W5" s="11">
-        <v>999</v>
+        <v>200</v>
       </c>
       <c r="X5" s="11">
-        <v>1000</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1529,10 +1529,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:G9"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G7" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,59 +1546,59 @@
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
     </row>
